--- a/biology/Zoologie/Acheroraptor/Acheroraptor.xlsx
+++ b/biology/Zoologie/Acheroraptor/Acheroraptor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acheroraptor temertyorum
 Acheroraptor (« voleur de l'Achéron ») est un genre de dinosaures théropodes de la famille des droméosauridés de la fin du Maastrichtien (Crétacé supérieur), connu à partir de restes fossiles retrouvés dans la formation de Hell Creek, dans l'État du Montana aux États-Unis.
-Il est représenté par une espèce unique, Acheroraptor temertyorum, l'une des plus récentes, au sens géologique, des espèces connues de dromaeosauridés avec le genre nord-américain Dineobellator décrit en 2020[1],[2].
+Il est représenté par une espèce unique, Acheroraptor temertyorum, l'une des plus récentes, au sens géologique, des espèces connues de dromaeosauridés avec le genre nord-américain Dineobellator décrit en 2020,.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kansaignathus a été placé comme membre basal de la sous-famille Velociraptorinae par Averianov &amp; Lopatin en 2021. Leur cladogramme est présenté ci-dessous[3],[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kansaignathus a été placé comme membre basal de la sous-famille Velociraptorinae par Averianov &amp; Lopatin en 2021. Leur cladogramme est présenté ci-dessous, :
 </t>
         </is>
       </c>
